--- a/output.xlsx
+++ b/output.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,164 +464,164 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v/>
+        <v>2.00</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="I2" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="J2" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="K2" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="L2" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="M2" t="str">
-        <v>IOQ22000838Pan</v>
+        <v>IOQ22035324Par</v>
       </c>
       <c r="N2" t="str">
-        <v>May 10, 2007</v>
+        <v>15/10/07</v>
       </c>
       <c r="O2" t="str">
-        <v/>
+        <v>Parth</v>
       </c>
       <c r="P2" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q2" t="str">
-        <v/>
+        <v>HR01-3000-117512</v>
       </c>
       <c r="R2" t="str">
-        <v/>
+        <v>9</v>
       </c>
       <c r="S2" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="T2" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="U2" t="str">
-        <v/>
+        <v>7</v>
       </c>
       <c r="V2" t="str">
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="J3" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="L3" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="M3" t="str">
-        <v>IOQ22001349PAN</v>
+        <v>IOQ22087703Vai</v>
       </c>
       <c r="N3" t="str">
-        <v>November 1, 2007</v>
+        <v>04/07/05</v>
       </c>
       <c r="O3" t="str">
-        <v/>
+        <v>Vaishaali</v>
       </c>
       <c r="P3" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q3" t="str">
-        <v/>
+        <v>TN30-0111-140177</v>
       </c>
       <c r="R3" t="str">
-        <v/>
+        <v>9</v>
       </c>
       <c r="S3" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="T3" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="U3" t="str">
-        <v/>
+        <v>8</v>
       </c>
       <c r="V3" t="str">
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0.00</v>
+        <v>2.00</v>
       </c>
       <c r="B4" t="str">
-        <v>0.00</v>
+        <v>2.00</v>
       </c>
       <c r="C4" t="str">
-        <v>0.00</v>
+        <v>3.00</v>
       </c>
       <c r="D4" t="str">
         <v>3.00</v>
       </c>
       <c r="E4" t="str">
-        <v>0.00</v>
+        <v>3.00</v>
       </c>
       <c r="F4" t="str">
-        <v>0.00</v>
+        <v>3.00</v>
       </c>
       <c r="G4" t="str">
         <v>0.00</v>
       </c>
       <c r="H4" t="str">
-        <v>0.00</v>
+        <v>3.00</v>
       </c>
       <c r="I4" t="str">
         <v>3.00</v>
@@ -633,63 +633,63 @@
         <v>0.00</v>
       </c>
       <c r="L4" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="M4" t="str">
-        <v>IOQ22001558Sid</v>
+        <v>IOQ22036823Rag</v>
       </c>
       <c r="N4" t="str">
-        <v>October 23, 2007</v>
+        <v>24/09/06</v>
       </c>
       <c r="O4" t="str">
-        <v>SiddharthKochhar</v>
+        <v>Raghuraam</v>
       </c>
       <c r="P4" t="str">
         <v>YES</v>
       </c>
       <c r="Q4" t="str">
-        <v>UP01-3000-147016</v>
+        <v>TN29-0110-139817</v>
       </c>
       <c r="R4" t="str">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S4" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T4" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U4" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V4" t="str">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0.00</v>
+        <v>2.00</v>
       </c>
       <c r="B5" t="str">
-        <v>0.00</v>
+        <v>2.00</v>
       </c>
       <c r="C5" t="str">
-        <v>0.00</v>
+        <v>3.00</v>
       </c>
       <c r="D5" t="str">
-        <v>0.00</v>
+        <v>3.00</v>
       </c>
       <c r="E5" t="str">
-        <v>0.00</v>
+        <v>3.00</v>
       </c>
       <c r="F5" t="str">
-        <v>0.00</v>
+        <v>3.00</v>
       </c>
       <c r="G5" t="str">
         <v>0.00</v>
       </c>
       <c r="H5" t="str">
-        <v>0.00</v>
+        <v>3.00</v>
       </c>
       <c r="I5" t="str">
         <v>3.00</v>
@@ -701,131 +701,131 @@
         <v>0.00</v>
       </c>
       <c r="L5" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="M5" t="str">
-        <v>IOQ22001795Gay</v>
+        <v>IOQ22036823Rag</v>
       </c>
       <c r="N5" t="str">
-        <v>February 17, 2008</v>
+        <v>24/09/06</v>
       </c>
       <c r="O5" t="str">
-        <v>GayatriR</v>
+        <v>Raghuraam</v>
       </c>
       <c r="P5" t="str">
         <v>YES</v>
       </c>
       <c r="Q5" t="str">
-        <v>RJ30-3000-128808</v>
+        <v>TN29-0110-139817</v>
       </c>
       <c r="R5" t="str">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S5" t="str">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T5" t="str">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U5" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V5" t="str">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>2.00</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>2.00</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>5.00</v>
       </c>
       <c r="K6" t="str">
-        <v/>
+        <v>5.00</v>
       </c>
       <c r="L6" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="M6" t="str">
-        <v>IOQ22001966DEE</v>
+        <v>IOQ22001349PAN</v>
       </c>
       <c r="N6" t="str">
-        <v>August 3, 2008</v>
+        <v>01/11/07</v>
       </c>
       <c r="O6" t="str">
-        <v/>
+        <v>PANINI</v>
       </c>
       <c r="P6" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q6" t="str">
-        <v/>
+        <v>BR13-3000-110913</v>
       </c>
       <c r="R6" t="str">
-        <v/>
+        <v>10</v>
       </c>
       <c r="S6" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="T6" t="str">
-        <v/>
+        <v>8</v>
       </c>
       <c r="U6" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="V6" t="str">
-        <v/>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0.00</v>
+        <v>2.00</v>
       </c>
       <c r="B7" t="str">
-        <v>0.00</v>
+        <v>2.00</v>
       </c>
       <c r="C7" t="str">
-        <v>0.00</v>
+        <v>3.00</v>
       </c>
       <c r="D7" t="str">
-        <v>0.00</v>
+        <v>3.00</v>
       </c>
       <c r="E7" t="str">
-        <v>0.00</v>
+        <v>3.00</v>
       </c>
       <c r="F7" t="str">
         <v>0.00</v>
       </c>
       <c r="G7" t="str">
-        <v>0.00</v>
+        <v>3.00</v>
       </c>
       <c r="H7" t="str">
-        <v>0.00</v>
+        <v>3.00</v>
       </c>
       <c r="I7" t="str">
         <v>3.00</v>
@@ -840,34 +840,34 @@
         <v>0.00</v>
       </c>
       <c r="M7" t="str">
-        <v>IOQ22002144ARN</v>
+        <v>IOQ22000820Rav</v>
       </c>
       <c r="N7" t="str">
-        <v>December 15, 2007</v>
+        <v>05/10/06</v>
       </c>
       <c r="O7" t="str">
-        <v>arnavbansal</v>
+        <v>Ravi</v>
       </c>
       <c r="P7" t="str">
         <v>YES</v>
       </c>
       <c r="Q7" t="str">
-        <v>CH04-3000-108867</v>
+        <v>CH04-0000-109171</v>
       </c>
       <c r="R7" t="str">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S7" t="str">
+        <v>4</v>
+      </c>
+      <c r="T7" t="str">
+        <v>8</v>
+      </c>
+      <c r="U7" t="str">
         <v>0</v>
       </c>
-      <c r="T7" t="str">
-        <v>1</v>
-      </c>
-      <c r="U7" t="str">
-        <v>11</v>
-      </c>
       <c r="V7" t="str">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -884,7 +884,7 @@
         <v>0.00</v>
       </c>
       <c r="E8" t="str">
-        <v>3.00</v>
+        <v>0.00</v>
       </c>
       <c r="F8" t="str">
         <v>0.00</v>
@@ -908,34 +908,34 @@
         <v>0.00</v>
       </c>
       <c r="M8" t="str">
-        <v>IOQ22002169DEV</v>
+        <v>IOQ22020471Anu</v>
       </c>
       <c r="N8" t="str">
-        <v>February 21, 2007</v>
+        <v>27/06/06</v>
       </c>
       <c r="O8" t="str">
-        <v>DevamPramit</v>
+        <v>Anushka</v>
       </c>
       <c r="P8" t="str">
         <v>YES</v>
       </c>
       <c r="Q8" t="str">
-        <v>TS26-3000-123520</v>
+        <v>UP02-0000-145692</v>
       </c>
       <c r="R8" t="str">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S8" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T8" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8" t="str">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="V8" t="str">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -976,31 +976,31 @@
         <v>0.00</v>
       </c>
       <c r="M9" t="str">
-        <v>IOQ22004700SAG</v>
+        <v>IOQ22068648Jit</v>
       </c>
       <c r="N9" t="str">
-        <v>December 15, 2006</v>
+        <v>05/09/06</v>
       </c>
       <c r="O9" t="str">
-        <v>SagnikGhosh</v>
+        <v>Jitesh</v>
       </c>
       <c r="P9" t="str">
         <v>YES</v>
       </c>
       <c r="Q9" t="str">
-        <v>WB16-2000-120720</v>
+        <v>HR01-0000-118583</v>
       </c>
       <c r="R9" t="str">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S9" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T9" t="str">
         <v>1</v>
       </c>
       <c r="U9" t="str">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="V9" t="str">
         <v>3</v>
@@ -1008,25 +1008,25 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2.00</v>
+        <v>0.00</v>
       </c>
       <c r="B10" t="str">
-        <v>2.00</v>
+        <v>0.00</v>
       </c>
       <c r="C10" t="str">
-        <v>3.00</v>
+        <v>0.00</v>
       </c>
       <c r="D10" t="str">
         <v>0.00</v>
       </c>
       <c r="E10" t="str">
-        <v>3.00</v>
+        <v>0.00</v>
       </c>
       <c r="F10" t="str">
         <v>0.00</v>
       </c>
       <c r="G10" t="str">
-        <v>3.00</v>
+        <v>0.00</v>
       </c>
       <c r="H10" t="str">
         <v>0.00</v>
@@ -1044,19 +1044,19 @@
         <v>0.00</v>
       </c>
       <c r="M10" t="str">
-        <v>IOQ22005545Aks</v>
+        <v>IOQ22004937Sha</v>
       </c>
       <c r="N10" t="str">
-        <v>July 29, 2007</v>
+        <v>30/06/05</v>
       </c>
       <c r="O10" t="str">
-        <v>AkshatShukla</v>
+        <v>Shaankari</v>
       </c>
       <c r="P10" t="str">
         <v>YES</v>
       </c>
       <c r="Q10" t="str">
-        <v>MP11-3000-126598</v>
+        <v>TS30-0000-125639</v>
       </c>
       <c r="R10" t="str">
         <v>12</v>
@@ -1065,24 +1065,24 @@
         <v>0</v>
       </c>
       <c r="T10" t="str">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U10" t="str">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="V10" t="str">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2.00</v>
+        <v>0.00</v>
       </c>
       <c r="B11" t="str">
-        <v>2.00</v>
+        <v>0.00</v>
       </c>
       <c r="C11" t="str">
-        <v>3.00</v>
+        <v>0.00</v>
       </c>
       <c r="D11" t="str">
         <v>0.00</v>
@@ -1097,13 +1097,13 @@
         <v>0.00</v>
       </c>
       <c r="H11" t="str">
-        <v>3.00</v>
+        <v>0.00</v>
       </c>
       <c r="I11" t="str">
         <v>3.00</v>
       </c>
       <c r="J11" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K11" t="str">
         <v>0.00</v>
@@ -1112,238 +1112,238 @@
         <v>0.00</v>
       </c>
       <c r="M11" t="str">
-        <v>IOQ22006203Pra</v>
+        <v>IOQ22074312Aka</v>
       </c>
       <c r="N11" t="str">
-        <v>June 5, 2007</v>
+        <v>31/08/05</v>
       </c>
       <c r="O11" t="str">
-        <v>PradishGandhi</v>
+        <v>Akash</v>
       </c>
       <c r="P11" t="str">
         <v>YES</v>
       </c>
       <c r="Q11" t="str">
-        <v>TN29-3000-138519</v>
+        <v>DL01-2101-105520</v>
       </c>
       <c r="R11" t="str">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S11" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T11" t="str">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U11" t="str">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="V11" t="str">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v/>
+        <v>2.00</v>
       </c>
       <c r="B12" t="str">
-        <v/>
+        <v>2.00</v>
       </c>
       <c r="C12" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="F12" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="G12" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="H12" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="I12" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="J12" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="K12" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="L12" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="M12" t="str">
-        <v>IOQ22007234Mih</v>
+        <v>IOQ22009107Dee</v>
       </c>
       <c r="N12" t="str">
-        <v>24/08/06</v>
+        <v>13/11/07</v>
       </c>
       <c r="O12" t="str">
-        <v/>
+        <v>Deepak</v>
       </c>
       <c r="P12" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q12" t="str">
-        <v/>
+        <v>RJ10-3000-130677</v>
       </c>
       <c r="R12" t="str">
-        <v/>
+        <v>8</v>
       </c>
       <c r="S12" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="T12" t="str">
-        <v/>
+        <v>7</v>
       </c>
       <c r="U12" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V12" t="str">
-        <v/>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v/>
+        <v>2.00</v>
       </c>
       <c r="B13" t="str">
-        <v/>
+        <v>2.00</v>
       </c>
       <c r="C13" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="D13" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="E13" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="F13" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="G13" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="H13" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="I13" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="J13" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="K13" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="L13" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="M13" t="str">
-        <v>IOQ22009194PUR</v>
+        <v>IOQ22009107Dee</v>
       </c>
       <c r="N13" t="str">
-        <v>May 2, 2007</v>
+        <v>13/11/07</v>
       </c>
       <c r="O13" t="str">
-        <v/>
+        <v>Deepak</v>
       </c>
       <c r="P13" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q13" t="str">
-        <v/>
+        <v>RJ10-3000-130677</v>
       </c>
       <c r="R13" t="str">
-        <v/>
+        <v>8</v>
       </c>
       <c r="S13" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="T13" t="str">
-        <v/>
+        <v>7</v>
       </c>
       <c r="U13" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V13" t="str">
-        <v/>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="B14" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="C14" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="D14" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="F14" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="G14" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="H14" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="I14" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="J14" t="str">
-        <v/>
+        <v>5.00</v>
       </c>
       <c r="K14" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="L14" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="M14" t="str">
-        <v>IOQ22011016AMR</v>
+        <v>IOQ22034641Div</v>
       </c>
       <c r="N14" t="str">
-        <v>June 1, 2008</v>
+        <v>05/10/06</v>
       </c>
       <c r="O14" t="str">
-        <v/>
+        <v>Divisht</v>
       </c>
       <c r="P14" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q14" t="str">
-        <v/>
+        <v>HR01-0100-118370</v>
       </c>
       <c r="R14" t="str">
-        <v/>
+        <v>12</v>
       </c>
       <c r="S14" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="T14" t="str">
-        <v/>
+        <v>5</v>
       </c>
       <c r="U14" t="str">
-        <v/>
+        <v>7</v>
       </c>
       <c r="V14" t="str">
-        <v/>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1351,7 +1351,7 @@
         <v>0.00</v>
       </c>
       <c r="B15" t="str">
-        <v>2.00</v>
+        <v>0.00</v>
       </c>
       <c r="C15" t="str">
         <v>0.00</v>
@@ -1384,48 +1384,48 @@
         <v>0.00</v>
       </c>
       <c r="M15" t="str">
-        <v>IOQ22013405Sid</v>
+        <v>IOQ22006258Kri</v>
       </c>
       <c r="N15" t="str">
-        <v>26/06/06</v>
+        <v>25/06/06</v>
       </c>
       <c r="O15" t="str">
-        <v>SidharthValsan</v>
+        <v>Krish</v>
       </c>
       <c r="P15" t="str">
         <v>YES</v>
       </c>
       <c r="Q15" t="str">
-        <v>KL28-2110-142701</v>
+        <v>DL01-0100-109925</v>
       </c>
       <c r="R15" t="str">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S15" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T15" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U15" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V15" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>0.00</v>
+        <v>2.00</v>
       </c>
       <c r="B16" t="str">
-        <v>0.00</v>
+        <v>2.00</v>
       </c>
       <c r="C16" t="str">
-        <v>0.00</v>
+        <v>3.00</v>
       </c>
       <c r="D16" t="str">
-        <v>0.00</v>
+        <v>3.00</v>
       </c>
       <c r="E16" t="str">
         <v>0.00</v>
@@ -1437,7 +1437,7 @@
         <v>0.00</v>
       </c>
       <c r="H16" t="str">
-        <v>0.00</v>
+        <v>3.00</v>
       </c>
       <c r="I16" t="str">
         <v>3.00</v>
@@ -1452,107 +1452,3099 @@
         <v>0.00</v>
       </c>
       <c r="M16" t="str">
-        <v>IOQ22014295HET</v>
+        <v>IOQ22026194Tus</v>
       </c>
       <c r="N16" t="str">
-        <v>December 27, 2007</v>
+        <v>09/09/05</v>
       </c>
       <c r="O16" t="str">
-        <v>Hetanshjaydeep</v>
+        <v>Tushar</v>
       </c>
       <c r="P16" t="str">
         <v>YES</v>
       </c>
       <c r="Q16" t="str">
-        <v>GJ30-3000-144173</v>
+        <v>PB04-0100-107881</v>
       </c>
       <c r="R16" t="str">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S16" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T16" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U16" t="str">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V16" t="str">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v/>
+        <v>2.00</v>
       </c>
       <c r="B17" t="str">
-        <v/>
+        <v>2.00</v>
       </c>
       <c r="C17" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="D17" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="E17" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="F17" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="G17" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="I17" t="str">
-        <v/>
+        <v>3.00</v>
       </c>
       <c r="J17" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="K17" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="L17" t="str">
-        <v/>
+        <v>0.00</v>
       </c>
       <c r="M17" t="str">
-        <v>IOQ22014823KAR</v>
+        <v>IOQ22027159Div</v>
       </c>
       <c r="N17" t="str">
-        <v>September 24, 2006</v>
+        <v>23/05/06</v>
       </c>
       <c r="O17" t="str">
-        <v/>
+        <v>Divya</v>
       </c>
       <c r="P17" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q17" t="str">
-        <v/>
+        <v>CH04-0001-109154</v>
       </c>
       <c r="R17" t="str">
-        <v/>
+        <v>9</v>
       </c>
       <c r="S17" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="T17" t="str">
-        <v/>
+        <v>6</v>
       </c>
       <c r="U17" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="V17" t="str">
-        <v/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B18" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C18" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D18" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="E18" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="F18" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G18" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H18" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="I18" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J18" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K18" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L18" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M18" t="str">
+        <v>IOQ22031253PRA</v>
+      </c>
+      <c r="N18" t="str">
+        <v>28/12/05</v>
+      </c>
+      <c r="O18" t="str">
+        <v>PRANJAL</v>
+      </c>
+      <c r="P18" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>DL01-0000-118367</v>
+      </c>
+      <c r="R18" t="str">
+        <v>12</v>
+      </c>
+      <c r="S18" t="str">
+        <v>0</v>
+      </c>
+      <c r="T18" t="str">
+        <v>5</v>
+      </c>
+      <c r="U18" t="str">
+        <v>7</v>
+      </c>
+      <c r="V18" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B19" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C19" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D19" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="E19" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="F19" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G19" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H19" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="I19" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J19" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K19" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L19" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M19" t="str">
+        <v>IOQ22031253PRA</v>
+      </c>
+      <c r="N19" t="str">
+        <v>28/12/05</v>
+      </c>
+      <c r="O19" t="str">
+        <v>PRANJAL</v>
+      </c>
+      <c r="P19" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>DL01-0000-118367</v>
+      </c>
+      <c r="R19" t="str">
+        <v>12</v>
+      </c>
+      <c r="S19" t="str">
+        <v>0</v>
+      </c>
+      <c r="T19" t="str">
+        <v>5</v>
+      </c>
+      <c r="U19" t="str">
+        <v>7</v>
+      </c>
+      <c r="V19" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B20" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="C20" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D20" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="E20" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F20" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G20" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H20" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="I20" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J20" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K20" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L20" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M20" t="str">
+        <v>IOQ22037906Vis</v>
+      </c>
+      <c r="N20" t="str">
+        <v>18/11/04</v>
+      </c>
+      <c r="O20" t="str">
+        <v>Vishal</v>
+      </c>
+      <c r="P20" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>TN29-0000-139819</v>
+      </c>
+      <c r="R20" t="str">
+        <v>8</v>
+      </c>
+      <c r="S20" t="str">
+        <v>4</v>
+      </c>
+      <c r="T20" t="str">
+        <v>5</v>
+      </c>
+      <c r="U20" t="str">
+        <v>3</v>
+      </c>
+      <c r="V20" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B21" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C21" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D21" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E21" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F21" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G21" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H21" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I21" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J21" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K21" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L21" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M21" t="str">
+        <v>IOQ22012874Log</v>
+      </c>
+      <c r="N21" t="str">
+        <v>15/11/05</v>
+      </c>
+      <c r="O21" t="str">
+        <v>Logeshwari</v>
+      </c>
+      <c r="P21" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>TN29-0110-158707</v>
+      </c>
+      <c r="R21" t="str">
+        <v>8</v>
+      </c>
+      <c r="S21" t="str">
+        <v>4</v>
+      </c>
+      <c r="T21" t="str">
+        <v>1</v>
+      </c>
+      <c r="U21" t="str">
+        <v>7</v>
+      </c>
+      <c r="V21" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B22" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C22" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D22" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E22" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="F22" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G22" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H22" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I22" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J22" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K22" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L22" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M22" t="str">
+        <v>IOQ22027133Anv</v>
+      </c>
+      <c r="N22" t="str">
+        <v>07/07/05</v>
+      </c>
+      <c r="O22" t="str">
+        <v>Anvesha</v>
+      </c>
+      <c r="P22" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>CH04-0010-109132</v>
+      </c>
+      <c r="R22" t="str">
+        <v>12</v>
+      </c>
+      <c r="S22" t="str">
+        <v>0</v>
+      </c>
+      <c r="T22" t="str">
+        <v>2</v>
+      </c>
+      <c r="U22" t="str">
+        <v>10</v>
+      </c>
+      <c r="V22" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B23" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C23" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D23" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E23" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F23" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G23" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H23" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I23" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J23" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K23" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L23" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M23" t="str">
+        <v>IOQ22070974Git</v>
+      </c>
+      <c r="N23" t="str">
+        <v>30/12/03</v>
+      </c>
+      <c r="O23" t="str">
+        <v>Gitansh</v>
+      </c>
+      <c r="P23" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>DL30-0000-107160</v>
+      </c>
+      <c r="R23" t="str">
+        <v>12</v>
+      </c>
+      <c r="S23" t="str">
+        <v>0</v>
+      </c>
+      <c r="T23" t="str">
+        <v>1</v>
+      </c>
+      <c r="U23" t="str">
+        <v>11</v>
+      </c>
+      <c r="V23" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="B24" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="C24" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D24" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="E24" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F24" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G24" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H24" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="I24" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J24" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K24" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L24" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M24" t="str">
+        <v>IOQ22007079Van</v>
+      </c>
+      <c r="N24" t="str">
+        <v>10/01/06</v>
+      </c>
+      <c r="O24" t="str">
+        <v>Vanshika</v>
+      </c>
+      <c r="P24" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>HR04-0110-118075</v>
+      </c>
+      <c r="R24" t="str">
+        <v>12</v>
+      </c>
+      <c r="S24" t="str">
+        <v>0</v>
+      </c>
+      <c r="T24" t="str">
+        <v>5</v>
+      </c>
+      <c r="U24" t="str">
+        <v>7</v>
+      </c>
+      <c r="V24" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B25" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C25" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D25" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E25" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F25" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G25" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H25" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I25" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J25" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K25" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L25" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M25" t="str">
+        <v>IOQ22021695Pin</v>
+      </c>
+      <c r="N25" t="str">
+        <v>19/03/06</v>
+      </c>
+      <c r="O25" t="str">
+        <v>Pintoo</v>
+      </c>
+      <c r="P25" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>DL01-0100-105861</v>
+      </c>
+      <c r="R25" t="str">
+        <v>9</v>
+      </c>
+      <c r="S25" t="str">
+        <v>3</v>
+      </c>
+      <c r="T25" t="str">
+        <v>1</v>
+      </c>
+      <c r="U25" t="str">
+        <v>8</v>
+      </c>
+      <c r="V25" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="B26" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="C26" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D26" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E26" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F26" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G26" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H26" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I26" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J26" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K26" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L26" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M26" t="str">
+        <v>IOQ22005593San</v>
+      </c>
+      <c r="N26" t="str">
+        <v>03/02/06</v>
+      </c>
+      <c r="O26" t="str">
+        <v>Sanjitha</v>
+      </c>
+      <c r="P26" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>TN29-0010-157871</v>
+      </c>
+      <c r="R26" t="str">
+        <v>5</v>
+      </c>
+      <c r="S26" t="str">
+        <v>7</v>
+      </c>
+      <c r="T26" t="str">
+        <v>3</v>
+      </c>
+      <c r="U26" t="str">
+        <v>2</v>
+      </c>
+      <c r="V26" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B27" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C27" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D27" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E27" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F27" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G27" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H27" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I27" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J27" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K27" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L27" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M27" t="str">
+        <v>IOQ22020422Shr</v>
+      </c>
+      <c r="N27" t="str">
+        <v>15/03/07</v>
+      </c>
+      <c r="O27" t="str">
+        <v>Shrestha</v>
+      </c>
+      <c r="P27" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>UK03-0000-104792</v>
+      </c>
+      <c r="R27" t="str">
+        <v>7</v>
+      </c>
+      <c r="S27" t="str">
+        <v>5</v>
+      </c>
+      <c r="T27" t="str">
+        <v>1</v>
+      </c>
+      <c r="U27" t="str">
+        <v>6</v>
+      </c>
+      <c r="V27" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B28" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C28" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D28" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E28" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F28" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G28" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H28" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I28" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J28" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K28" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L28" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M28" t="str">
+        <v>IOQ22068127Nak</v>
+      </c>
+      <c r="N28" t="str">
+        <v>18/07/05</v>
+      </c>
+      <c r="O28" t="str">
+        <v>Nakul</v>
+      </c>
+      <c r="P28" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>DL30-0000-106769</v>
+      </c>
+      <c r="R28" t="str">
+        <v>12</v>
+      </c>
+      <c r="S28" t="str">
+        <v>0</v>
+      </c>
+      <c r="T28" t="str">
+        <v>2</v>
+      </c>
+      <c r="U28" t="str">
+        <v>10</v>
+      </c>
+      <c r="V28" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B29" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C29" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D29" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E29" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F29" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G29" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H29" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I29" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J29" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K29" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L29" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M29" t="str">
+        <v>IOQ22038175Vij</v>
+      </c>
+      <c r="N29" t="str">
+        <v>11/07/07</v>
+      </c>
+      <c r="O29" t="str">
+        <v>VijaySimhaReddy</v>
+      </c>
+      <c r="P29" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>AP25-0000-135105</v>
+      </c>
+      <c r="R29" t="str">
+        <v>12</v>
+      </c>
+      <c r="S29" t="str">
+        <v>0</v>
+      </c>
+      <c r="T29" t="str">
+        <v>2</v>
+      </c>
+      <c r="U29" t="str">
+        <v>10</v>
+      </c>
+      <c r="V29" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B30" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C30" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D30" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E30" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F30" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G30" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H30" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I30" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J30" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K30" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L30" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M30" t="str">
+        <v>IOQ22015601Din</v>
+      </c>
+      <c r="N30" t="str">
+        <v>10/04/05</v>
+      </c>
+      <c r="O30" t="str">
+        <v>Dinesh</v>
+      </c>
+      <c r="P30" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>HR30-0110-118510</v>
+      </c>
+      <c r="R30" t="str">
+        <v>12</v>
+      </c>
+      <c r="S30" t="str">
+        <v>0</v>
+      </c>
+      <c r="T30" t="str">
+        <v>1</v>
+      </c>
+      <c r="U30" t="str">
+        <v>11</v>
+      </c>
+      <c r="V30" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B31" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C31" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D31" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E31" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F31" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G31" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H31" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I31" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J31" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K31" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L31" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M31" t="str">
+        <v>IOQ22053226Rac</v>
+      </c>
+      <c r="N31" t="str">
+        <v>18/11/06</v>
+      </c>
+      <c r="O31" t="str">
+        <v>RachitBiswal</v>
+      </c>
+      <c r="P31" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>OD30-0000-132708</v>
+      </c>
+      <c r="R31" t="str">
+        <v>12</v>
+      </c>
+      <c r="S31" t="str">
+        <v>0</v>
+      </c>
+      <c r="T31" t="str">
+        <v>1</v>
+      </c>
+      <c r="U31" t="str">
+        <v>11</v>
+      </c>
+      <c r="V31" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B32" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C32" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D32" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E32" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="F32" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G32" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H32" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I32" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J32" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K32" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L32" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M32" t="str">
+        <v>IOQ22035855AAK</v>
+      </c>
+      <c r="N32" t="str">
+        <v>30/12/06</v>
+      </c>
+      <c r="O32" t="str">
+        <v>AAKASH</v>
+      </c>
+      <c r="P32" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>HR01-0000-118662</v>
+      </c>
+      <c r="R32" t="str">
+        <v>6</v>
+      </c>
+      <c r="S32" t="str">
+        <v>6</v>
+      </c>
+      <c r="T32" t="str">
+        <v>2</v>
+      </c>
+      <c r="U32" t="str">
+        <v>4</v>
+      </c>
+      <c r="V32" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B33" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C33" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D33" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="E33" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F33" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G33" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H33" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="I33" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J33" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K33" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L33" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M33" t="str">
+        <v>IOQ22012085SAB</v>
+      </c>
+      <c r="N33" t="str">
+        <v>07/06/07</v>
+      </c>
+      <c r="O33" t="str">
+        <v>SABARINATH</v>
+      </c>
+      <c r="P33" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>TN29-3000-140195</v>
+      </c>
+      <c r="R33" t="str">
+        <v>12</v>
+      </c>
+      <c r="S33" t="str">
+        <v>0</v>
+      </c>
+      <c r="T33" t="str">
+        <v>4</v>
+      </c>
+      <c r="U33" t="str">
+        <v>8</v>
+      </c>
+      <c r="V33" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B34" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C34" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D34" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E34" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F34" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G34" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H34" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I34" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J34" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K34" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L34" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M34" t="str">
+        <v>IOQ22093472Gar</v>
+      </c>
+      <c r="N34" t="str">
+        <v>30/04/06</v>
+      </c>
+      <c r="O34" t="str">
+        <v>GARIMA</v>
+      </c>
+      <c r="P34" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>HR01-0000-117040</v>
+      </c>
+      <c r="R34" t="str">
+        <v>8</v>
+      </c>
+      <c r="S34" t="str">
+        <v>4</v>
+      </c>
+      <c r="T34" t="str">
+        <v>2</v>
+      </c>
+      <c r="U34" t="str">
+        <v>6</v>
+      </c>
+      <c r="V34" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="B35" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C35" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D35" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E35" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="F35" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G35" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H35" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I35" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J35" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K35" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L35" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M35" t="str">
+        <v>IOQ22074107KRI</v>
+      </c>
+      <c r="N35" t="str">
+        <v>19/12/07</v>
+      </c>
+      <c r="O35" t="str">
+        <v>KRISHANG</v>
+      </c>
+      <c r="P35" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>UP31-3000-148728</v>
+      </c>
+      <c r="R35" t="str">
+        <v>12</v>
+      </c>
+      <c r="S35" t="str">
+        <v>0</v>
+      </c>
+      <c r="T35" t="str">
+        <v>4</v>
+      </c>
+      <c r="U35" t="str">
+        <v>8</v>
+      </c>
+      <c r="V35" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="B36" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C36" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D36" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="E36" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F36" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G36" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H36" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I36" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J36" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K36" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L36" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M36" t="str">
+        <v>IOQ22001554Jag</v>
+      </c>
+      <c r="N36" t="str">
+        <v>01/01/06</v>
+      </c>
+      <c r="O36" t="str">
+        <v>Jagrit</v>
+      </c>
+      <c r="P36" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>PB04-0000-108474</v>
+      </c>
+      <c r="R36" t="str">
+        <v>12</v>
+      </c>
+      <c r="S36" t="str">
+        <v>0</v>
+      </c>
+      <c r="T36" t="str">
+        <v>4</v>
+      </c>
+      <c r="U36" t="str">
+        <v>8</v>
+      </c>
+      <c r="V36" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B37" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="C37" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D37" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E37" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="F37" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G37" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H37" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I37" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J37" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K37" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L37" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M37" t="str">
+        <v>IOQ22092970Abh</v>
+      </c>
+      <c r="N37" t="str">
+        <v>08/11/05</v>
+      </c>
+      <c r="O37" t="str">
+        <v>Abhinav</v>
+      </c>
+      <c r="P37" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>HR01-0000-118398</v>
+      </c>
+      <c r="R37" t="str">
+        <v>12</v>
+      </c>
+      <c r="S37" t="str">
+        <v>0</v>
+      </c>
+      <c r="T37" t="str">
+        <v>4</v>
+      </c>
+      <c r="U37" t="str">
+        <v>8</v>
+      </c>
+      <c r="V37" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B38" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C38" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D38" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E38" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F38" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G38" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H38" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I38" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J38" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K38" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="L38" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M38" t="str">
+        <v>IOQ22003893GUN</v>
+      </c>
+      <c r="N38" t="str">
+        <v>10/08/06</v>
+      </c>
+      <c r="O38" t="str">
+        <v>Gunmay</v>
+      </c>
+      <c r="P38" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>HR04-0000-117046</v>
+      </c>
+      <c r="R38" t="str">
+        <v>12</v>
+      </c>
+      <c r="S38" t="str">
+        <v>0</v>
+      </c>
+      <c r="T38" t="str">
+        <v>3</v>
+      </c>
+      <c r="U38" t="str">
+        <v>9</v>
+      </c>
+      <c r="V38" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B39" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="C39" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D39" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E39" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="F39" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G39" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H39" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I39" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J39" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K39" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L39" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M39" t="str">
+        <v>IOQ22018639Ars</v>
+      </c>
+      <c r="N39" t="str">
+        <v>04/02/06</v>
+      </c>
+      <c r="O39" t="str">
+        <v>Arsh</v>
+      </c>
+      <c r="P39" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>DL01-2110-117727</v>
+      </c>
+      <c r="R39" t="str">
+        <v>9</v>
+      </c>
+      <c r="S39" t="str">
+        <v>3</v>
+      </c>
+      <c r="T39" t="str">
+        <v>4</v>
+      </c>
+      <c r="U39" t="str">
+        <v>5</v>
+      </c>
+      <c r="V39" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="B40" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C40" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D40" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="E40" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F40" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G40" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H40" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I40" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J40" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K40" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L40" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M40" t="str">
+        <v>IOQ22001554Jag</v>
+      </c>
+      <c r="N40" t="str">
+        <v>01/01/06</v>
+      </c>
+      <c r="O40" t="str">
+        <v>Jagrit</v>
+      </c>
+      <c r="P40" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>PB04-0000-108474</v>
+      </c>
+      <c r="R40" t="str">
+        <v>12</v>
+      </c>
+      <c r="S40" t="str">
+        <v>0</v>
+      </c>
+      <c r="T40" t="str">
+        <v>4</v>
+      </c>
+      <c r="U40" t="str">
+        <v>8</v>
+      </c>
+      <c r="V40" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B41" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="C41" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D41" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E41" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="F41" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G41" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H41" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="I41" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J41" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K41" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L41" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M41" t="str">
+        <v>IOQ22041486Sri</v>
+      </c>
+      <c r="N41" t="str">
+        <v>06/09/05</v>
+      </c>
+      <c r="O41" t="str">
+        <v>Srishti</v>
+      </c>
+      <c r="P41" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>MH08-0110-159206</v>
+      </c>
+      <c r="R41" t="str">
+        <v>11</v>
+      </c>
+      <c r="S41" t="str">
+        <v>1</v>
+      </c>
+      <c r="T41" t="str">
+        <v>4</v>
+      </c>
+      <c r="U41" t="str">
+        <v>7</v>
+      </c>
+      <c r="V41" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B42" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C42" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D42" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E42" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F42" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G42" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H42" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I42" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J42" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K42" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="L42" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M42" t="str">
+        <v>IOQ22003893GUN</v>
+      </c>
+      <c r="N42" t="str">
+        <v>10/08/06</v>
+      </c>
+      <c r="O42" t="str">
+        <v>Gunmay</v>
+      </c>
+      <c r="P42" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>HR04-0000-117046</v>
+      </c>
+      <c r="R42" t="str">
+        <v>12</v>
+      </c>
+      <c r="S42" t="str">
+        <v>0</v>
+      </c>
+      <c r="T42" t="str">
+        <v>3</v>
+      </c>
+      <c r="U42" t="str">
+        <v>9</v>
+      </c>
+      <c r="V42" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="B43" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="C43" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D43" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E43" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F43" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G43" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H43" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I43" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J43" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K43" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L43" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M43" t="str">
+        <v>IOQ22010227Shi</v>
+      </c>
+      <c r="N43" t="str">
+        <v>23/08/07</v>
+      </c>
+      <c r="O43" t="str">
+        <v>Shivansh</v>
+      </c>
+      <c r="P43" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>BR13-3000-110956</v>
+      </c>
+      <c r="R43" t="str">
+        <v>6</v>
+      </c>
+      <c r="S43" t="str">
+        <v>6</v>
+      </c>
+      <c r="T43" t="str">
+        <v>4</v>
+      </c>
+      <c r="U43" t="str">
+        <v>2</v>
+      </c>
+      <c r="V43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B44" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="C44" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D44" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E44" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F44" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G44" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H44" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I44" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J44" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="K44" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L44" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M44" t="str">
+        <v>IOQ22012764Abh</v>
+      </c>
+      <c r="N44" t="str">
+        <v>15/03/07</v>
+      </c>
+      <c r="O44" t="str">
+        <v>Abhishek</v>
+      </c>
+      <c r="P44" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>DL01-3000-104851</v>
+      </c>
+      <c r="R44" t="str">
+        <v>12</v>
+      </c>
+      <c r="S44" t="str">
+        <v>0</v>
+      </c>
+      <c r="T44" t="str">
+        <v>3</v>
+      </c>
+      <c r="U44" t="str">
+        <v>9</v>
+      </c>
+      <c r="V44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B45" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C45" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D45" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E45" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F45" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G45" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H45" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="I45" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J45" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K45" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L45" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M45" t="str">
+        <v>IOQ22008737San</v>
+      </c>
+      <c r="N45" t="str">
+        <v>16/12/05</v>
+      </c>
+      <c r="O45" t="str">
+        <v>Sanyam</v>
+      </c>
+      <c r="P45" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>HR01-0000-118013</v>
+      </c>
+      <c r="R45" t="str">
+        <v>8</v>
+      </c>
+      <c r="S45" t="str">
+        <v>4</v>
+      </c>
+      <c r="T45" t="str">
+        <v>3</v>
+      </c>
+      <c r="U45" t="str">
+        <v>5</v>
+      </c>
+      <c r="V45" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B46" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C46" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D46" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E46" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F46" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="G46" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H46" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="I46" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J46" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K46" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L46" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M46" t="str">
+        <v>IOQ22009806Sac</v>
+      </c>
+      <c r="N46" t="str">
+        <v>14/09/03</v>
+      </c>
+      <c r="O46" t="str">
+        <v>Sachin</v>
+      </c>
+      <c r="P46" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>JH15-0000-116846</v>
+      </c>
+      <c r="R46" t="str">
+        <v>12</v>
+      </c>
+      <c r="S46" t="str">
+        <v>0</v>
+      </c>
+      <c r="T46" t="str">
+        <v>3</v>
+      </c>
+      <c r="U46" t="str">
+        <v>9</v>
+      </c>
+      <c r="V46" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B47" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C47" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D47" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="E47" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="F47" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G47" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H47" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I47" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J47" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K47" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L47" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M47" t="str">
+        <v>IOQ22041507KAN</v>
+      </c>
+      <c r="N47" t="str">
+        <v>06/04/06</v>
+      </c>
+      <c r="O47" t="str">
+        <v>Kanhaiya</v>
+      </c>
+      <c r="P47" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>HR01-0000-118671</v>
+      </c>
+      <c r="R47" t="str">
+        <v>12</v>
+      </c>
+      <c r="S47" t="str">
+        <v>0</v>
+      </c>
+      <c r="T47" t="str">
+        <v>3</v>
+      </c>
+      <c r="U47" t="str">
+        <v>9</v>
+      </c>
+      <c r="V47" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B48" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C48" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D48" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E48" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="F48" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G48" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H48" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I48" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J48" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K48" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L48" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M48" t="str">
+        <v>IOQ22009194PUR</v>
+      </c>
+      <c r="N48" t="str">
+        <v>02/05/07</v>
+      </c>
+      <c r="O48" t="str">
+        <v>PURNIMA</v>
+      </c>
+      <c r="P48" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>HR01-3000-117708</v>
+      </c>
+      <c r="R48" t="str">
+        <v>12</v>
+      </c>
+      <c r="S48" t="str">
+        <v>0</v>
+      </c>
+      <c r="T48" t="str">
+        <v>2</v>
+      </c>
+      <c r="U48" t="str">
+        <v>10</v>
+      </c>
+      <c r="V48" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B49" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C49" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D49" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E49" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="F49" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G49" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H49" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I49" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J49" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K49" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L49" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M49" t="str">
+        <v>IOQ22001896Pra</v>
+      </c>
+      <c r="N49" t="str">
+        <v>17/02/06</v>
+      </c>
+      <c r="O49" t="str">
+        <v>Pranav</v>
+      </c>
+      <c r="P49" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>DL01-0100-106415</v>
+      </c>
+      <c r="R49" t="str">
+        <v>12</v>
+      </c>
+      <c r="S49" t="str">
+        <v>0</v>
+      </c>
+      <c r="T49" t="str">
+        <v>3</v>
+      </c>
+      <c r="U49" t="str">
+        <v>9</v>
+      </c>
+      <c r="V49" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B50" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C50" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D50" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E50" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F50" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G50" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H50" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I50" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J50" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K50" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L50" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M50" t="str">
+        <v>IOQ22000838Pan</v>
+      </c>
+      <c r="N50" t="str">
+        <v>10/05/07</v>
+      </c>
+      <c r="O50" t="str">
+        <v>PankajKumar</v>
+      </c>
+      <c r="P50" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>JH15-3000-115712</v>
+      </c>
+      <c r="R50" t="str">
+        <v>6</v>
+      </c>
+      <c r="S50" t="str">
+        <v>6</v>
+      </c>
+      <c r="T50" t="str">
+        <v>1</v>
+      </c>
+      <c r="U50" t="str">
+        <v>5</v>
+      </c>
+      <c r="V50" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B51" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C51" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D51" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E51" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F51" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G51" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H51" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I51" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J51" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K51" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L51" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M51" t="str">
+        <v>IOQ22030831anu</v>
+      </c>
+      <c r="N51" t="str">
+        <v>26/12/06</v>
+      </c>
+      <c r="O51" t="str">
+        <v>Anurag</v>
+      </c>
+      <c r="P51" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>UP30-0000-147390</v>
+      </c>
+      <c r="R51" t="str">
+        <v>9</v>
+      </c>
+      <c r="S51" t="str">
+        <v>3</v>
+      </c>
+      <c r="T51" t="str">
+        <v>1</v>
+      </c>
+      <c r="U51" t="str">
+        <v>8</v>
+      </c>
+      <c r="V51" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B52" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C52" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="D52" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E52" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F52" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G52" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H52" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I52" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J52" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K52" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L52" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M52" t="str">
+        <v>IOQ22000110Kri</v>
+      </c>
+      <c r="N52" t="str">
+        <v>18/08/05</v>
+      </c>
+      <c r="O52" t="str">
+        <v>Kritant</v>
+      </c>
+      <c r="P52" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q52" t="str">
+        <v>JH15-2100-115927</v>
+      </c>
+      <c r="R52" t="str">
+        <v>8</v>
+      </c>
+      <c r="S52" t="str">
+        <v>4</v>
+      </c>
+      <c r="T52" t="str">
+        <v>2</v>
+      </c>
+      <c r="U52" t="str">
+        <v>6</v>
+      </c>
+      <c r="V52" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B53" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C53" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D53" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E53" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F53" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G53" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H53" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I53" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J53" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K53" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L53" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M53" t="str">
+        <v>IOQ22011016AMR</v>
+      </c>
+      <c r="N53" t="str">
+        <v>01/06/08</v>
+      </c>
+      <c r="O53" t="str">
+        <v>Amritesh</v>
+      </c>
+      <c r="P53" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q53" t="str">
+        <v>HR01-3000-157484</v>
+      </c>
+      <c r="R53" t="str">
+        <v>6</v>
+      </c>
+      <c r="S53" t="str">
+        <v>6</v>
+      </c>
+      <c r="T53" t="str">
+        <v>1</v>
+      </c>
+      <c r="U53" t="str">
+        <v>5</v>
+      </c>
+      <c r="V53" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B54" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C54" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D54" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="E54" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F54" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G54" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H54" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I54" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J54" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K54" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L54" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M54" t="str">
+        <v>IOQ22051826MAH</v>
+      </c>
+      <c r="N54" t="str">
+        <v>23/12/04</v>
+      </c>
+      <c r="O54" t="str">
+        <v>MAHFOOJ</v>
+      </c>
+      <c r="P54" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q54" t="str">
+        <v>RJ31-0010-117270</v>
+      </c>
+      <c r="R54" t="str">
+        <v>12</v>
+      </c>
+      <c r="S54" t="str">
+        <v>0</v>
+      </c>
+      <c r="T54" t="str">
+        <v>2</v>
+      </c>
+      <c r="U54" t="str">
+        <v>10</v>
+      </c>
+      <c r="V54" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B55" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C55" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D55" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E55" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F55" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G55" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H55" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I55" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J55" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K55" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L55" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M55" t="str">
+        <v>IOQ22001966Dee</v>
+      </c>
+      <c r="N55" t="str">
+        <v>03/08/08</v>
+      </c>
+      <c r="O55" t="str">
+        <v>Deepanshu</v>
+      </c>
+      <c r="P55" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q55" t="str">
+        <v>DL01-0000-106661</v>
+      </c>
+      <c r="R55" t="str">
+        <v>9</v>
+      </c>
+      <c r="S55" t="str">
+        <v>3</v>
+      </c>
+      <c r="T55" t="str">
+        <v>1</v>
+      </c>
+      <c r="U55" t="str">
+        <v>8</v>
+      </c>
+      <c r="V55" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B56" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="C56" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D56" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E56" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F56" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G56" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H56" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="I56" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J56" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K56" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L56" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M56" t="str">
+        <v>IOQ22005976Pus</v>
+      </c>
+      <c r="N56" t="str">
+        <v>06/09/05</v>
+      </c>
+      <c r="O56" t="str">
+        <v>Pushpender</v>
+      </c>
+      <c r="P56" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>DL01-2100-116950</v>
+      </c>
+      <c r="R56" t="str">
+        <v>12</v>
+      </c>
+      <c r="S56" t="str">
+        <v>0</v>
+      </c>
+      <c r="T56" t="str">
+        <v>3</v>
+      </c>
+      <c r="U56" t="str">
+        <v>9</v>
+      </c>
+      <c r="V56" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="B57" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C57" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D57" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E57" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="F57" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G57" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H57" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I57" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J57" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K57" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L57" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M57" t="str">
+        <v>IOQ22044969Nal</v>
+      </c>
+      <c r="N57" t="str">
+        <v>25/07/04</v>
+      </c>
+      <c r="O57" t="str">
+        <v>Nalini</v>
+      </c>
+      <c r="P57" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q57" t="str">
+        <v>BR13-0000-112621</v>
+      </c>
+      <c r="R57" t="str">
+        <v>12</v>
+      </c>
+      <c r="S57" t="str">
+        <v>0</v>
+      </c>
+      <c r="T57" t="str">
+        <v>3</v>
+      </c>
+      <c r="U57" t="str">
+        <v>9</v>
+      </c>
+      <c r="V57" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B58" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C58" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D58" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F58" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G58" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H58" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I58" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J58" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K58" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="L58" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M58" t="str">
+        <v>IOQ22025452DIV</v>
+      </c>
+      <c r="N58" t="str">
+        <v>06/01/06</v>
+      </c>
+      <c r="O58" t="str">
+        <v>DIVYAM</v>
+      </c>
+      <c r="P58" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q58" t="str">
+        <v>PB04-0010-108186</v>
+      </c>
+      <c r="R58" t="str">
+        <v>12</v>
+      </c>
+      <c r="S58" t="str">
+        <v>0</v>
+      </c>
+      <c r="T58" t="str">
+        <v>2</v>
+      </c>
+      <c r="U58" t="str">
+        <v>10</v>
+      </c>
+      <c r="V58" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B59" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="C59" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D59" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E59" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="F59" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G59" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H59" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I59" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J59" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K59" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L59" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M59" t="str">
+        <v>IOQ22004571Ved</v>
+      </c>
+      <c r="N59" t="str">
+        <v>05/01/08</v>
+      </c>
+      <c r="O59" t="str">
+        <v>Vedant</v>
+      </c>
+      <c r="P59" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q59" t="str">
+        <v>PB04-0000-108804</v>
+      </c>
+      <c r="R59" t="str">
+        <v>12</v>
+      </c>
+      <c r="S59" t="str">
+        <v>0</v>
+      </c>
+      <c r="T59" t="str">
+        <v>3</v>
+      </c>
+      <c r="U59" t="str">
+        <v>9</v>
+      </c>
+      <c r="V59" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B60" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="C60" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D60" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E60" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F60" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G60" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H60" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I60" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J60" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K60" t="str">
+        <v>5.00</v>
+      </c>
+      <c r="L60" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M60" t="str">
+        <v>IOQ22025452DIV</v>
+      </c>
+      <c r="N60" t="str">
+        <v>06/01/06</v>
+      </c>
+      <c r="O60" t="str">
+        <v>DIVYAM</v>
+      </c>
+      <c r="P60" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>PB04-0010-108186</v>
+      </c>
+      <c r="R60" t="str">
+        <v>12</v>
+      </c>
+      <c r="S60" t="str">
+        <v>0</v>
+      </c>
+      <c r="T60" t="str">
+        <v>2</v>
+      </c>
+      <c r="U60" t="str">
+        <v>10</v>
+      </c>
+      <c r="V60" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="B61" t="str">
+        <v>2.00</v>
+      </c>
+      <c r="C61" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="D61" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E61" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="F61" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G61" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H61" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I61" t="str">
+        <v>3.00</v>
+      </c>
+      <c r="J61" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="K61" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="L61" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M61" t="str">
+        <v>IOQ22004571Ved</v>
+      </c>
+      <c r="N61" t="str">
+        <v>05/01/08</v>
+      </c>
+      <c r="O61" t="str">
+        <v>Vedant</v>
+      </c>
+      <c r="P61" t="str">
+        <v>YES</v>
+      </c>
+      <c r="Q61" t="str">
+        <v>PB04-0000-108804</v>
+      </c>
+      <c r="R61" t="str">
+        <v>12</v>
+      </c>
+      <c r="S61" t="str">
+        <v>0</v>
+      </c>
+      <c r="T61" t="str">
+        <v>3</v>
+      </c>
+      <c r="U61" t="str">
+        <v>9</v>
+      </c>
+      <c r="V61" t="str">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:V17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:V61"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -11,10 +11,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -391,7 +389,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -404,155 +402,71 @@
         <v>DOB</v>
       </c>
       <c r="C1" t="str">
-        <v>Score</v>
+        <v>Valid</v>
       </c>
       <c r="D1" t="str">
-        <v>Valid</v>
+        <v>First Name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Middle Name</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Last Name</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Mobile No.</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Subject</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Language</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Fee Paid</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>MTA22502460</v>
+        <v>MTA23101304</v>
       </c>
       <c r="B2" t="str">
-        <v>27/08/2007</v>
+        <v>01/01/08</v>
       </c>
       <c r="C2" t="str">
-        <v>32</v>
+        <v>YES</v>
       </c>
       <c r="D2" t="str">
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>WBK00010005</v>
-      </c>
-      <c r="B3" t="str">
-        <v>12/06/2007</v>
-      </c>
-      <c r="C3" t="str">
-        <v>15</v>
-      </c>
-      <c r="D3" t="str">
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>MTA22506549</v>
-      </c>
-      <c r="B4" t="str">
-        <v>17/01/2006</v>
-      </c>
-      <c r="C4" t="str">
-        <v>23</v>
-      </c>
-      <c r="D4" t="str">
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>MTA22502601</v>
-      </c>
-      <c r="B5" t="str">
-        <v>01/12/2008</v>
-      </c>
-      <c r="C5" t="str">
-        <v>9</v>
-      </c>
-      <c r="D5" t="str">
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>MTA22512268</v>
-      </c>
-      <c r="B6" t="str">
-        <v>19/09/2007</v>
-      </c>
-      <c r="C6" t="str">
-        <v>14</v>
-      </c>
-      <c r="D6" t="str">
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>MTA22507001</v>
-      </c>
-      <c r="B7" t="str">
-        <v>31/05/2006</v>
-      </c>
-      <c r="C7" t="str">
-        <v>16</v>
-      </c>
-      <c r="D7" t="str">
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>DLK00150010</v>
-      </c>
-      <c r="B8" t="str">
-        <v>12/11/2007</v>
-      </c>
-      <c r="C8" t="str">
-        <v>9</v>
-      </c>
-      <c r="D8" t="str">
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>MTA22507724</v>
-      </c>
-      <c r="B9" t="str">
-        <v>22/12/2007</v>
-      </c>
-      <c r="C9" t="str">
-        <v>23</v>
-      </c>
-      <c r="D9" t="str">
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>MTA22510528</v>
-      </c>
-      <c r="B10" t="str">
-        <v>08/08/2007</v>
-      </c>
-      <c r="C10" t="str">
-        <v>16</v>
-      </c>
-      <c r="D10" t="str">
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>JHM00020001</v>
-      </c>
-      <c r="B11" t="str">
-        <v>10/01/2009</v>
-      </c>
-      <c r="C11" t="str">
-        <v>16</v>
-      </c>
-      <c r="D11" t="str">
-        <v>YES</v>
+        <v>Abhay</v>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v>Mahajan</v>
+      </c>
+      <c r="G2" t="str">
+        <v>9646031223</v>
+      </c>
+      <c r="H2" t="str">
+        <v>86.abhay@gmail.com</v>
+      </c>
+      <c r="I2" t="str">
+        <v>IOQM</v>
+      </c>
+      <c r="J2" t="str">
+        <v>ENGLISH</v>
+      </c>
+      <c r="K2" t="str">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
   </ignoredErrors>
 </worksheet>
 </file>